--- a/outputs/ML_Results/dist_LR/Wien.xlsx
+++ b/outputs/ML_Results/dist_LR/Wien.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ15443151" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ15619181" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ15797218" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ15981107" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ16161584" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ16340110" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ16529305" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ16712088" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ16888532" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ17072774" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ17258319" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ17442315" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ17635172" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ17826301" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ18018998" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ18205378" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ18393921" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ18601275" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ18783827" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ18985068" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ19173100" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ19356989" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ19543362" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ19725838" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ19906643" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ20091542" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ20271032" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ20453597" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ20639111" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ20825137" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ21034317" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ21218717" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ21407832" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ21591866" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ21780895" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ21964927" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ22147185" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ22333036" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ22515129" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ22699053" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ22884191" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ23071732" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ23251539" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ23437064" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ23615823" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ23805733" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ24004521" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ24186211" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ24365234" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ24548414" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ16786044" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ16951479" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ17252913" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ17548580" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ17816064" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ18047654" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ18268288" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ18481092" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ18677793" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ18881440" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ19103381" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ19323430" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ19530227" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ19739905" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ19945285" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ20191814" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ20442261" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ20672624" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ20897768" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ21190819" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ21399143" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ21590071" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ21878270" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ22104355" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ22350477" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ22563761" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ22771678" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ23002505" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ23232331" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ23484876" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ23705524" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ23916865" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ24116888" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ24312977" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ24540603" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ24751844" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ24991060" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ25242123" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ25512795" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ25793450" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ26026860" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ26243234" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ26467892" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ26677800" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ26925437" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ27173691" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ27490259" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ27732421" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ27973326" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ28206256" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Wien.xlsx
+++ b/outputs/ML_Results/dist_LR/Wien.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ16786044" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ16951479" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ17252913" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ17548580" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ17816064" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ18047654" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ18268288" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ18481092" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ18677793" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ18881440" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ19103381" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ19323430" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ19530227" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ19739905" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ19945285" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ20191814" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ20442261" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ20672624" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ20897768" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ21190819" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ21399143" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ21590071" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ21878270" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ22104355" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ22350477" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ22563761" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ22771678" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ23002505" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ23232331" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ23484876" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ23705524" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ23916865" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ24116888" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ24312977" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ24540603" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ24751844" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ24991060" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ25242123" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ25512795" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ25793450" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ26026860" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ26243234" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ26467892" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ26677800" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ26925437" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ27173691" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ27490259" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ27732421" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ27973326" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ28206256" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ20219862" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ20362101" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ20499215" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ20637701" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ20773541" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ20913963" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ21057557" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ21196687" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ21334111" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ21475249" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ21615349" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ21753365" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ21893994" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ22041818" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ22204037" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ22386686" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ22569297" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ22752671" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ22941841" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ23131207" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ23317822" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ23507658" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ23699254" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ23878076" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ24064142" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ24258300" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ24443739" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ24628563" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ24814335" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ25004916" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ25191828" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ25377259" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ25563926" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ25751026" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ25932931" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ26120194" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ26309431" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ26490710" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ26675033" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ26858515" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ27047694" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ27237120" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ27421549" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ27624421" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ27856961" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ28114412" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ28420078" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ28635115" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ28824110" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ29034447" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13872.63210478553</v>
+        <v>14342.91113857848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09565715448311558</v>
+        <v>0.08263936999211549</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.56901031879</v>
+        <v>148.6357283923909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6440173001611923</v>
+        <v>0.5836103009448651</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.1136854934266</v>
+        <v>42.83139471529216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7973042094268185</v>
+        <v>0.8802232323475341</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1923515405323064</v>
+        <v>-0.1928987820796422</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1967839459771057</v>
+        <v>0.1925340290854124</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.080046765250549e-05</v>
+        <v>2.039444342964218e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4970198500322864</v>
+        <v>0.8086480258936197</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-71.15879941280757</v>
+        <v>-70.3931143676091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0486630777038299</v>
+        <v>0.04915776172878904</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-52.71506079764622</v>
+        <v>-55.98552388819297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08096351771521576</v>
+        <v>0.0608106223174817</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7215.16131578059</v>
+        <v>-5749.755513829743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1913058656794499</v>
+        <v>0.2657284173079099</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2292.762245935352</v>
+        <v>1081.662637526843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6580669611343879</v>
+        <v>0.8265679322368122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6376.414558751445</v>
+        <v>25544.57098276034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4034433447135285</v>
+        <v>0.007344121072289067</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26216.58286258359</v>
+        <v>-37.54841028203001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006751350764171504</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-42.26502305307648</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7504771391754338</v>
+        <v>0.7759403221695098</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13835.41428294549</v>
+        <v>14425.08079792406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03974806687377973</v>
+        <v>0.02968042064465832</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.57170395982152</v>
+        <v>69.34627170491652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8380495490584383</v>
+        <v>0.7192366000153652</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.982087554281</v>
+        <v>184.6965641043042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2870231353016597</v>
+        <v>0.2830384310870857</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2458684576160925</v>
+        <v>-0.2619814042422701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1158520959107988</v>
+        <v>0.08844924020667062</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.890368154155818e-05</v>
+        <v>2.842781967601398e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2776505563919824</v>
+        <v>0.4105112083797738</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-69.39964496462102</v>
+        <v>-69.58592726393269</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04924239759807639</v>
+        <v>0.04637294304007094</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-58.86425862816441</v>
+        <v>-63.05052586120041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06837387557800484</v>
+        <v>0.04614977938963141</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6616.781791435838</v>
+        <v>-5759.814294012554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.146614834165094</v>
+        <v>0.1842334089797088</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3933.522799859829</v>
+        <v>3347.853573669347</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3910346954699834</v>
+        <v>0.4531373182186469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4836.252557995806</v>
+        <v>31202.74280076072</v>
       </c>
       <c r="C11" t="n">
-        <v>0.46586408857001</v>
+        <v>6.816973407234267e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31482.7529407201</v>
+        <v>-65.23763216484546</v>
       </c>
       <c r="C12" t="n">
-        <v>7.677040074798892e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-58.9481714895452</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5036776080200485</v>
+        <v>0.4532566460336986</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8850.130261494669</v>
+        <v>9739.108551186535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2322264013608131</v>
+        <v>0.1806077045651195</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-183.4237358238237</v>
+        <v>-179.6397316570962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4030341951464108</v>
+        <v>0.4083489680569724</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>264.3232454947533</v>
+        <v>269.5695254527272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1953211766281878</v>
+        <v>0.1826120068734501</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1424236363710296</v>
+        <v>-0.1360714476282598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3544119604337509</v>
+        <v>0.3709043452658219</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.428021973867696e-05</v>
+        <v>3.480828548655651e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2568470768926338</v>
+        <v>0.3914959141554779</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-43.62412157899476</v>
+        <v>-44.74982395547112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1449337906916242</v>
+        <v>0.13120045245476</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.88632505414528</v>
+        <v>-36.93026906248668</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3572616299644042</v>
+        <v>0.2338737604656174</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-12603.74484671832</v>
+        <v>-10081.9113373497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1099824032403454</v>
+        <v>0.1508806400272783</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-80.57330194946371</v>
+        <v>-1754.832602446107</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9864318260054051</v>
+        <v>0.674520311951788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5450.165688216657</v>
+        <v>21237.87519269727</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4450267801818728</v>
+        <v>0.02648600806207718</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21444.36679369536</v>
+        <v>9.575035299075026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02674716186390784</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.53230548261057</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9117300992578289</v>
+        <v>0.9259949005245987</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21510.55310831128</v>
+        <v>22015.02263556504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05138993847433308</v>
+        <v>0.04278581252346385</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-19.77859421288343</v>
+        <v>-18.99967643817337</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9251737724291023</v>
+        <v>0.9270920836305753</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.0283533975144</v>
+        <v>123.0215446328264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5407076967149008</v>
+        <v>0.5175547448641664</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1745880958347416</v>
+        <v>-0.1736905776281351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2488690187940492</v>
+        <v>0.2444451761717137</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.679894385372401e-05</v>
+        <v>9.244820917424392e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6117202359951037</v>
+        <v>0.8289104870187481</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-67.24873993520471</v>
+        <v>-70.76984971229531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09580250605571101</v>
+        <v>0.07302768666656589</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-66.14541960942515</v>
+        <v>-70.13953965764388</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04327429239212476</v>
+        <v>0.02699990793488792</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6861.045414949873</v>
+        <v>-6105.512817653866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1625523873305126</v>
+        <v>0.1893925414143122</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.837963057798</v>
+        <v>454.5404697862705</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8304751418363632</v>
+        <v>0.9288974343171978</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4363.663218415941</v>
+        <v>22781.89694656324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5578885686668826</v>
+        <v>0.03819952193257643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22930.319483878</v>
+        <v>-143.6556849858259</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03997928940343787</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-142.7181091886468</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3598091737872618</v>
+        <v>0.3498383463265327</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4257.114917714316</v>
+        <v>5075.057602740311</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5222450681804844</v>
+        <v>0.4344547754042845</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>365.440995761483</v>
+        <v>367.7704591435058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06520397724122483</v>
+        <v>0.06058256929986601</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.436267999198</v>
+        <v>121.349530218835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4028206118170015</v>
+        <v>0.4444124199185846</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1449323024120828</v>
+        <v>-0.1566312224554521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3220143618729447</v>
+        <v>0.2769771187345987</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.044679385011428e-05</v>
+        <v>5.228141684826158e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09862518034517795</v>
+        <v>0.1126744116030575</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-59.29011320737875</v>
+        <v>-61.83738602498769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04762288681469095</v>
+        <v>0.03591598789791644</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-31.26771638907688</v>
+        <v>-35.50818699078656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2536663411705612</v>
+        <v>0.1809871202280826</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7247.816189994433</v>
+        <v>-6752.64999631208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09082601028142975</v>
+        <v>0.1048184960477066</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.5984419685501</v>
+        <v>-526.752121342377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9433142705107218</v>
+        <v>0.8992404123134206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4222.796724282024</v>
+        <v>29465.61564635244</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4819482967162823</v>
+        <v>6.373756765139849e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29855.82707271528</v>
+        <v>59.1628411291598</v>
       </c>
       <c r="C12" t="n">
-        <v>7.176439554203916e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>58.85117940180407</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5462376996387077</v>
+        <v>0.5397498138500181</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17497.91118733147</v>
+        <v>18045.3418732864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000395487379564699</v>
+        <v>0.0002086579346016232</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.1079418402045</v>
+        <v>130.4999513741911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3744299515505025</v>
+        <v>0.3373881325914363</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.97816602746764</v>
+        <v>14.63510982390667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9133314558841032</v>
+        <v>0.9085068242604182</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2225282265123475</v>
+        <v>-0.2229458788087483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01570583795765372</v>
+        <v>0.01452272523150151</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.04748588875463e-07</v>
+        <v>-1.790985097401425e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9905846788347059</v>
+        <v>0.4876119076399478</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-43.23909409882831</v>
+        <v>-43.89403481415713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06711823349232082</v>
+        <v>0.06074405560461732</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-60.33651328144165</v>
+        <v>-62.53158516841398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01085450272756229</v>
+        <v>0.007505594798872269</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1334.544080301344</v>
+        <v>-764.9780771109181</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6747907867620301</v>
+        <v>0.8029020348520149</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2127.49289884059</v>
+        <v>1196.552382781241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.502593577819758</v>
+        <v>0.6801853357282059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4077.576545985376</v>
+        <v>23473.13502803306</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4395654634134943</v>
+        <v>5.785604461399387e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24083.72143686764</v>
+        <v>-121.8355899180142</v>
       </c>
       <c r="C12" t="n">
-        <v>6.061374845831159e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-117.4114921206707</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07847917801894203</v>
+        <v>0.06501335470629759</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14474.39611394817</v>
+        <v>15131.74020986205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03854209533016858</v>
+        <v>0.02811826647564562</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.39127132376183</v>
+        <v>103.8694225570931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7393221075218084</v>
+        <v>0.6573485903799524</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.41193730496946</v>
+        <v>-12.27511176623216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9516123258760014</v>
+        <v>0.9651976707061029</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1876028193555974</v>
+        <v>-0.1558872197883931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.338967592475233</v>
+        <v>0.4092130891576865</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.375056273556036e-05</v>
+        <v>-2.884692241995182e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8238904050311131</v>
+        <v>0.8159681642071559</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-83.93970306100253</v>
+        <v>-84.91964678393839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03703923102813517</v>
+        <v>0.03308064261256866</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-51.95512501245172</v>
+        <v>-54.60268806708419</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07098444088719123</v>
+        <v>0.05409252442827286</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7377.840181963056</v>
+        <v>-5627.893208049933</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1890595361118944</v>
+        <v>0.2589656866475995</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4438.997067053993</v>
+        <v>3285.957637559957</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3978355631423496</v>
+        <v>0.5060086566875026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5899.585648172979</v>
+        <v>28400.37784089874</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4672718779484361</v>
+        <v>0.0008173698343426128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28916.52230732487</v>
+        <v>-53.29895016607554</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008256599776051317</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-49.54569792281069</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6225105253266705</v>
+        <v>0.5925070465873827</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15927.80333945608</v>
+        <v>16533.60325358915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02901567585982841</v>
+        <v>0.02102990077515831</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.57968444397</v>
+        <v>51.39889701300359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8606924606274953</v>
+        <v>0.8017064046016706</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.0239129350149</v>
+        <v>124.1138551565347</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5674805466576676</v>
+        <v>0.5591375391097835</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2401265003606476</v>
+        <v>-0.2342397893969962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1418547903117373</v>
+        <v>0.1455445324519487</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.165277552963137e-05</v>
+        <v>1.656826854300625e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4765558043612764</v>
+        <v>0.6993017154152819</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-55.02519713067544</v>
+        <v>-55.59341307923363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.103258763530648</v>
+        <v>0.0954567823204662</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-57.57425994701154</v>
+        <v>-62.63710434231857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06338293956107866</v>
+        <v>0.03566085433233922</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7322.481852923182</v>
+        <v>-5352.669959946295</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3037578781288222</v>
+        <v>0.3964699485722742</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1303.544921571538</v>
+        <v>34.86510388020179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7909079869463556</v>
+        <v>0.9937457974463989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4783.022860488283</v>
+        <v>26754.47866231844</v>
       </c>
       <c r="C11" t="n">
-        <v>0.519800245259687</v>
+        <v>0.0009607212915176166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27411.81621551603</v>
+        <v>-83.75632264429973</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009918617468668194</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-83.24151475896895</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.44055936830387</v>
+        <v>0.4319530966029714</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9202.525565754353</v>
+        <v>9381.696524859815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199656607615732</v>
+        <v>0.1820072453376872</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.5910481081856</v>
+        <v>126.966790741674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6441012748806061</v>
+        <v>0.6060866482675937</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9707934419122</v>
+        <v>147.6105023458357</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4299457276383349</v>
+        <v>0.4309803063679064</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1584177456026348</v>
+        <v>-0.1747267087043536</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3805633443668345</v>
+        <v>0.3100891681562635</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.532900679663888e-05</v>
+        <v>2.099411090082334e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5191475334403887</v>
+        <v>0.5740859050919374</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-47.90010860136951</v>
+        <v>-46.32529524838131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1514588659434223</v>
+        <v>0.1533823297545765</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-38.621747956725</v>
+        <v>-38.67147736611084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2282898709277404</v>
+        <v>0.2189755209719519</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5258.547463798118</v>
+        <v>-4876.195803338684</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2913588827220823</v>
+        <v>0.3069957630757855</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>260.4417029246797</v>
+        <v>-150.6179268211381</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9608942631880436</v>
+        <v>0.9764154445882247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3284.179306136575</v>
+        <v>26849.52255606001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7150181717131531</v>
+        <v>0.001367356775178405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26770.08092065457</v>
+        <v>-17.16906289940187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001738257468422783</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-11.0648285050961</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9140102527379999</v>
+        <v>0.8626456399275928</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11242.55183437426</v>
+        <v>12043.90832481386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1478593718395274</v>
+        <v>0.1195111626898582</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-27.22182103276816</v>
+        <v>15.56314388898943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8983157011039513</v>
+        <v>0.9404324520692565</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.6018280811701</v>
+        <v>75.88919251017728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6742193843785764</v>
+        <v>0.7583108066179999</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2079787606466164</v>
+        <v>-0.2055274028068293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1704557505824446</v>
+        <v>0.174548386866203</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.402200974689614e-05</v>
+        <v>2.867007874433314e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4492842766111519</v>
+        <v>0.7373121727461613</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-63.30372589451671</v>
+        <v>-66.22181040415381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08966375571241156</v>
+        <v>0.07507439368732992</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.518862926314</v>
+        <v>-43.13596285283145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2700038338819873</v>
+        <v>0.1994338332777416</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8501.259098297349</v>
+        <v>-6777.609318484116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1017056695159393</v>
+        <v>0.1596528143631876</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3700.264568306748</v>
+        <v>2662.770854147177</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4447162638571089</v>
+        <v>0.5713325904133542</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6630.588165272247</v>
+        <v>23747.39444882945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3329187308763232</v>
+        <v>0.03363189988344265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24405.74561823866</v>
+        <v>-18.07444289483428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03018245504593919</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.17745941100003</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8600048019719265</v>
+        <v>0.8606627370017089</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17500.4128232724</v>
+        <v>17749.17891651087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002992980995789287</v>
+        <v>0.001529500474494399</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.89907570308429</v>
+        <v>10.29533714579702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9301361082695307</v>
+        <v>0.9466313029924586</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.6108703556713</v>
+        <v>132.8007467729167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3695202964101685</v>
+        <v>0.3620170035747203</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2105417052619454</v>
+        <v>-0.2092578607682328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04152192446210269</v>
+        <v>0.03790482945126395</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.450986206773236e-05</v>
+        <v>1.023793353484664e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7065847268170247</v>
+        <v>0.7188993459695447</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-64.12498083656962</v>
+        <v>-65.08813177627246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02316237049005389</v>
+        <v>0.01640058300072334</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-58.45818662306159</v>
+        <v>-59.71398517009769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01939781355256075</v>
+        <v>0.01081767506251567</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4372.676804827727</v>
+        <v>-4238.432568538445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2327228331422972</v>
+        <v>0.2257352003675488</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2937.6258838535</v>
+        <v>2669.93839774596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4216116569558692</v>
+        <v>0.4070775414089162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-982.8135973087956</v>
+        <v>24342.82559269584</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8658815702477609</v>
+        <v>0.0001984037317518736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24418.78751056478</v>
+        <v>-112.296296149222</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002694778589225341</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-112.0177649039839</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1470945740573561</v>
+        <v>0.137629514761695</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17458.31916829929</v>
+        <v>18677.53225059344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0359191444636034</v>
+        <v>0.02122906485386647</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.39428158993536</v>
+        <v>42.73302476989971</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9572796989244794</v>
+        <v>0.8357458034021669</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.6946652759591</v>
+        <v>71.17893933510754</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6773269276554027</v>
+        <v>0.7099430576647736</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2576104943539514</v>
+        <v>-0.2527179449483609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08829774114319427</v>
+        <v>0.09018630896029012</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.377228237744562e-05</v>
+        <v>2.987361883437836e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3003399202209382</v>
+        <v>0.4420019976025208</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-72.59812539706795</v>
+        <v>-75.85300520685423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05376936801602723</v>
+        <v>0.04077297715400879</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-61.78087604404666</v>
+        <v>-69.32569603345286</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07849028316636703</v>
+        <v>0.03805749924296544</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9183.557909174442</v>
+        <v>-7690.899172271403</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09553868096965197</v>
+        <v>0.1234802107075662</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2933.610956699248</v>
+        <v>1651.357696239883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5556313538989831</v>
+        <v>0.7186459715594502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5341.874062620458</v>
+        <v>26408.37119760895</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4755974236958961</v>
+        <v>0.002841218912957199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27306.36397766566</v>
+        <v>-83.21770696088144</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002688800015367209</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-78.91573929529089</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4423030268001874</v>
+        <v>0.4124337222526221</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16242.80398273862</v>
+        <v>17079.40324160515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0472070351084816</v>
+        <v>0.03467269720203818</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.6587367754322</v>
+        <v>55.90897388369649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7730007809267001</v>
+        <v>0.8043017085185117</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.03207745880229</v>
+        <v>112.690437746637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7209545717311889</v>
+        <v>0.6119628854195684</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1545391034399071</v>
+        <v>-0.1468145291181998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3633145030620846</v>
+        <v>0.3831597831601602</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.808357001079786e-05</v>
+        <v>1.344691570187299e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4551048439237561</v>
+        <v>0.7384080404313778</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-69.45334830839701</v>
+        <v>-69.21900273487955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07821926532141327</v>
+        <v>0.07679279160200696</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-57.25438247185033</v>
+        <v>-61.24052199606214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05005196579608295</v>
+        <v>0.03299506368698649</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6793.151509245068</v>
+        <v>-5910.631402884039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1955487002343311</v>
+        <v>0.2439515587802164</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1364.980221141781</v>
+        <v>-61.95482954558611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7853546046180783</v>
+        <v>0.9893777395371615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5769.060447041137</v>
+        <v>26599.0043853517</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4219203863736948</v>
+        <v>0.003403110966605952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27652.57055673124</v>
+        <v>-92.43200863320607</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002999265975484081</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-81.98881651291751</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5069897452543355</v>
+        <v>0.4492322647731709</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17371.67601031835</v>
+        <v>17978.8137805906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007030041535913622</v>
+        <v>0.004421275888412074</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.25272425950277</v>
+        <v>44.57753050598589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8860592165636243</v>
+        <v>0.8030136877000739</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.2346184857833</v>
+        <v>106.2212697780218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4956215481949283</v>
+        <v>0.5323438635426502</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1685921964198263</v>
+        <v>-0.172810267422412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2035470940715708</v>
+        <v>0.1864859177288661</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.091164867746704e-05</v>
+        <v>-1.052460046983336e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8146682572241151</v>
+        <v>0.7399384245823993</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-45.03278704807144</v>
+        <v>-44.32353372910457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1583739064414877</v>
+        <v>0.1589616602828754</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-44.97522746354696</v>
+        <v>-46.60976795697709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06332818069756851</v>
+        <v>0.05042716128990012</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4456.825882389996</v>
+        <v>-3182.148796429288</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3397125080087628</v>
+        <v>0.4417891895618278</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1818.955953690293</v>
+        <v>768.6064114233122</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6493548619039213</v>
+        <v>0.830453054569354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4463.284971439441</v>
+        <v>18860.81457366461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5264740982230449</v>
+        <v>0.007338973574615047</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19538.50291458601</v>
+        <v>-142.3330625750373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007039571474585454</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-135.3219143530728</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1080059174977621</v>
+        <v>0.08488899082396385</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12011.06681473327</v>
+        <v>12802.87166837386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.108747934723151</v>
+        <v>0.07929680613237457</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.6931149574373</v>
+        <v>119.8686076290079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5480171150389148</v>
+        <v>0.572151957841573</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.3067116946288</v>
+        <v>125.8791979631117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5217620095864213</v>
+        <v>0.4807020537338441</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2202474107062025</v>
+        <v>-0.2177671191471029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.13138484747934</v>
+        <v>0.1299464272072415</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.224504291800244e-05</v>
+        <v>2.263687708879758e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3985022800733837</v>
+        <v>0.5417501250470345</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-55.55097844267441</v>
+        <v>-56.73620606676206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1179761681649778</v>
+        <v>0.1052035528527387</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-44.14902070120133</v>
+        <v>-48.63346103234345</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1622849457396993</v>
+        <v>0.1097966681273047</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4850.799823266439</v>
+        <v>-4137.591404625095</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3272342898142573</v>
+        <v>0.3813929308096016</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1824.548569632212</v>
+        <v>637.1558684172978</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7092791417521802</v>
+        <v>0.8851370319633183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4468.214363610896</v>
+        <v>26162.89195981574</v>
       </c>
       <c r="C11" t="n">
-        <v>0.548725743626455</v>
+        <v>0.001216405996159034</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26437.12270615356</v>
+        <v>-48.38481965608025</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001337463787293546</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-44.21190435781017</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6901661719781544</v>
+        <v>0.6577530127697845</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16010.89047562906</v>
+        <v>17392.23685042587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02153992739193399</v>
+        <v>0.01168999634618597</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.2147939451588</v>
+        <v>163.5718430221415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4909300302463498</v>
+        <v>0.4504100800694103</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-85.13643031405246</v>
+        <v>-53.88165035101864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6882854876026214</v>
+        <v>0.797703371584835</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2677902619279856</v>
+        <v>-0.2555528676169437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06246150826714373</v>
+        <v>0.07355420101879638</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.066256310477194e-05</v>
+        <v>9.441986135500813e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4009817373574844</v>
+        <v>0.8017635396674831</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-73.81984673851808</v>
+        <v>-75.60580296493144</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04822395662738876</v>
+        <v>0.04321014589811248</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-62.89774152532075</v>
+        <v>-73.94784268394443</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08297093039368482</v>
+        <v>0.03528672806893376</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4814.987783923207</v>
+        <v>-3610.494112688369</v>
       </c>
       <c r="C9" t="n">
-        <v>0.343228283032051</v>
+        <v>0.4640759662127794</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3696.819103051028</v>
+        <v>1955.60647799533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4134936005327694</v>
+        <v>0.6399432029890373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7181.622432437698</v>
+        <v>31243.15435719992</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3037456057205121</v>
+        <v>0.0002652586846605523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32810.00129951726</v>
+        <v>-67.13207734525128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002055718276253054</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-63.73117643996017</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5031056421830793</v>
+        <v>0.4812384726131228</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6683.473469067434</v>
+        <v>7046.071593490964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3250239931049956</v>
+        <v>0.2900905122647524</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-308.6373329186839</v>
+        <v>-286.2575123948109</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2143343004852785</v>
+        <v>0.2341740924956558</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.6828790561453</v>
+        <v>394.9739559418643</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1270628175206474</v>
+        <v>0.1408699609510871</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07569770876518193</v>
+        <v>-0.07478455329413738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5880428582654793</v>
+        <v>0.5867391814300127</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001487752783649741</v>
+        <v>0.0001192525623414066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1569399511546753</v>
+        <v>0.1707536376505811</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-67.45243267703063</v>
+        <v>-68.57869069406964</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03494944868199301</v>
+        <v>0.02924555146947886</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-28.94880229293497</v>
+        <v>-31.07023470161185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3392555674201529</v>
+        <v>0.2940724532299233</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-12353.3637569572</v>
+        <v>-11273.76719014905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05523894771398141</v>
+        <v>0.05933688458506907</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>323.4119833293962</v>
+        <v>-386.0458704961711</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9474283150004357</v>
+        <v>0.9338267445355689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3598.795861772483</v>
+        <v>16821.42263866257</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5944125687914912</v>
+        <v>0.06013028200241612</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16923.0599095549</v>
+        <v>59.73369753666077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06285983818226719</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>56.87927850291487</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5633052275893782</v>
+        <v>0.5371753289003388</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16322.62162308759</v>
+        <v>16788.64416776821</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04899882780939149</v>
+        <v>0.03931395030355506</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.9660398767062</v>
+        <v>149.1966519665277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5130421246407832</v>
+        <v>0.452394755901253</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.9333295157105</v>
+        <v>126.6701460265712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4524106798159977</v>
+        <v>0.4602531424086518</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1854571354192576</v>
+        <v>-0.2011165669262794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2686882311605261</v>
+        <v>0.2180974406260933</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.332928748256791e-05</v>
+        <v>2.747109679524086e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3661659072489998</v>
+        <v>0.4665635556460357</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-59.50304333540431</v>
+        <v>-59.79269846303529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05872958058517874</v>
+        <v>0.05395480524625247</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-64.56751424420939</v>
+        <v>-67.26252965434789</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02801494182936176</v>
+        <v>0.01898958306964219</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8117.993699704478</v>
+        <v>-7534.350438091507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07773582257091789</v>
+        <v>0.08650876653013653</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.85690172874433</v>
+        <v>-354.517139832768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9874480947996567</v>
+        <v>0.9413513829346052</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3713.507785449525</v>
+        <v>30070.72561557396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5787107651865713</v>
+        <v>0.0005518145347166728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30184.45991025147</v>
+        <v>-94.17853663271336</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006497291415381372</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-89.40586158933104</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4601196938993916</v>
+        <v>0.4290533611839955</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2966.374961827474</v>
+        <v>3006.082654559477</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4943685924615219</v>
+        <v>0.4784416513623346</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-130.8780301787465</v>
+        <v>-127.864871834737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2992319084550351</v>
+        <v>0.2929438994433153</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8934991657416</v>
+        <v>182.6821908860953</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1926540025547642</v>
+        <v>0.1803417515640389</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03186251639279253</v>
+        <v>0.03206014426955964</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6959580689753517</v>
+        <v>0.6878920909883326</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.493737723697638e-06</v>
+        <v>1.04476835106223e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.920163503282537</v>
+        <v>0.9810355223053622</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.70823052526052</v>
+        <v>-25.74715244372882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1692611551784856</v>
+        <v>0.1596146228464435</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.01078377376781</v>
+        <v>18.91747742209374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3783330492933107</v>
+        <v>0.3702485722294622</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4848.824593211342</v>
+        <v>-4699.656304524789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1248519778637245</v>
+        <v>0.1063694506363393</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1298.352703968401</v>
+        <v>-1404.858215488071</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6096155323286447</v>
+        <v>0.5548241288048529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-539.8026716984314</v>
+        <v>-1236.091669563837</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8874662184089679</v>
+        <v>0.8458936364233071</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1167.583509969372</v>
+        <v>70.51045818197494</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8577551383929223</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>70.16655452992033</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2755310493455301</v>
+        <v>0.2627133860025916</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17712.57065296664</v>
+        <v>18975.36036918614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03537619980533941</v>
+        <v>0.02237749100621021</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-47.3210439177102</v>
+        <v>-31.5278226274169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8214280969328726</v>
+        <v>0.8795231249021775</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.41742771340137</v>
+        <v>69.29270243949574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.751798165180118</v>
+        <v>0.7242919365618898</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2957978379775832</v>
+        <v>-0.2818203596387726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05936075318321947</v>
+        <v>0.06857556501224089</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.787089161666315e-05</v>
+        <v>2.521619967822116e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2913926803970197</v>
+        <v>0.5306872919739265</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-76.6118795124043</v>
+        <v>-78.9881007847133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0442862333750202</v>
+        <v>0.0370753494344039</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-61.16842765098041</v>
+        <v>-67.79080130295469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04332257080047683</v>
+        <v>0.02149392231512993</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9434.490306707647</v>
+        <v>-7295.67802283966</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09608844583821302</v>
+        <v>0.1482974994642962</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4046.676524359064</v>
+        <v>2424.0570093447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4329030676834643</v>
+        <v>0.6128511927802271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7106.390899813877</v>
+        <v>27417.49881311188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3725716165989692</v>
+        <v>0.002340479210872748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28233.0669790348</v>
+        <v>-85.81703405219383</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002072892768425985</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-73.25555888761838</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5510826417540544</v>
+        <v>0.4808883429343815</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15323.7585947654</v>
+        <v>15872.30659093583</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06016271008059692</v>
+        <v>0.0471919789878054</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.6930617805549</v>
+        <v>69.4312138085163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7366324033023866</v>
+        <v>0.741001549194122</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.0290730704796</v>
+        <v>128.8923276495567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5800555841123416</v>
+        <v>0.542207497650537</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1858911574795077</v>
+        <v>-0.181423938069466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2345857824502623</v>
+        <v>0.2382041122577756</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.902954009595672e-05</v>
+        <v>4.583413593017222e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6319775599848259</v>
+        <v>0.9139200801732298</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-57.09066638094396</v>
+        <v>-57.28772013329338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1254669311155438</v>
+        <v>0.1187074624753049</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-58.02613496737478</v>
+        <v>-61.73953177992215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1017236494125563</v>
+        <v>0.07336359576301404</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4489.768987508491</v>
+        <v>-3488.595291642543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4707523782895504</v>
+        <v>0.5527354021812924</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1501.310498202407</v>
+        <v>90.86358387884775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7726722888414597</v>
+        <v>0.983931589519685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5213.550385485286</v>
+        <v>25339.14679775085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5664387029812675</v>
+        <v>0.005477113691545769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26106.34853338452</v>
+        <v>-71.75742284253909</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005498691334993473</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-71.99892048086608</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5087369858114636</v>
+        <v>0.503984315437195</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7791.997789929259</v>
+        <v>8681.643648326919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2721735143401252</v>
+        <v>0.218292434053826</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>227.945343234552</v>
+        <v>232.6639657882168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2415713549495221</v>
+        <v>0.2315400538412946</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.55426075009107</v>
+        <v>95.35316825556042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5825585346831286</v>
+        <v>0.570947687831552</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2418622260357878</v>
+        <v>-0.2441997693741471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05163803026529054</v>
+        <v>0.04904045634501675</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.591887749286031e-05</v>
+        <v>2.171581568846112e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2993570578828863</v>
+        <v>0.5495949132619178</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.92393498138203</v>
+        <v>-44.25887883950962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1704949085221548</v>
+        <v>0.1364573604037707</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.81191771118457</v>
+        <v>-34.82161865545613</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3118735535611354</v>
+        <v>0.2318161760846726</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5690.302090906327</v>
+        <v>-4689.473888773255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1852834069346716</v>
+        <v>0.257569751968366</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3717.13775520644</v>
+        <v>2674.06349852608</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4029684607637772</v>
+        <v>0.5336915493857299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5815.753235310292</v>
+        <v>32368.96691839057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.329316677592586</v>
+        <v>4.004765693553304e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33146.71573375116</v>
+        <v>-47.65786596544611</v>
       </c>
       <c r="C12" t="n">
-        <v>3.664966618557335e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-43.61572771066537</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6205529616108107</v>
+        <v>0.5880641467678702</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6649.46025214837</v>
+        <v>6914.146010763645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3987947838358836</v>
+        <v>0.3706959622262812</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.777401444695</v>
+        <v>131.9141590620022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5577946930963826</v>
+        <v>0.5769552246170062</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.139337964348</v>
+        <v>160.8863401068661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4220270116641256</v>
+        <v>0.3774104988487682</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1844234475923331</v>
+        <v>-0.1824739559018215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1817370017046317</v>
+        <v>0.1782166898243204</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.774754963636591e-05</v>
+        <v>2.124628319579711e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4964195552236568</v>
+        <v>0.5881043642847887</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-33.34220611523865</v>
+        <v>-32.80993395647636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3414700683820129</v>
+        <v>0.3402450143714618</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.06380401761837</v>
+        <v>-23.50332228671856</v>
       </c>
       <c r="C8" t="n">
-        <v>0.521541765793574</v>
+        <v>0.4852908601154524</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6055.537705813131</v>
+        <v>-5466.086033034268</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2219758450963579</v>
+        <v>0.2415194003607791</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>721.5476099690077</v>
+        <v>-489.3245818056603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8980377063054048</v>
+        <v>0.9187144360254509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3860.850277926062</v>
+        <v>30253.0948434265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6669753695010479</v>
+        <v>0.0002807128659846344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30368.33078947748</v>
+        <v>-29.17583949135795</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003512507788351865</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-26.95543159143753</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7866421923110609</v>
+        <v>0.7652930737704493</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16134.13960094142</v>
+        <v>16540.27423525741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02554700921135489</v>
+        <v>0.02079305362300133</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.88793960061793</v>
+        <v>2.233483686805755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9479539085026889</v>
+        <v>0.9934122638699024</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.8527837782014</v>
+        <v>147.4272766277628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.546592663583745</v>
+        <v>0.5388735040001037</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04554869571812453</v>
+        <v>-0.08242544419378106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8537836312082273</v>
+        <v>0.7319790081530395</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.894507439730676e-05</v>
+        <v>1.299979230817601e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4537806833585805</v>
+        <v>0.7384605215159793</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-84.07184043270678</v>
+        <v>-80.36932817805364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03828411523783291</v>
+        <v>0.04328974661053756</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-61.46174186726662</v>
+        <v>-64.32005922790022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05289207887210714</v>
+        <v>0.04021154556612944</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5642.050548116018</v>
+        <v>-4705.353801056288</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2658504120935528</v>
+        <v>0.3330036174554507</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-166.8013115348153</v>
+        <v>-780.5840526769161</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9776364307276814</v>
+        <v>0.8938298589415377</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5881.62357020461</v>
+        <v>26125.24959290495</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4436240144483307</v>
+        <v>0.001925370279284347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26402.25414327544</v>
+        <v>-69.24116660063197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001980787009332967</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-62.30439139551754</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5582612427959895</v>
+        <v>0.5105866731176251</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15689.99234495053</v>
+        <v>15979.95458986365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02282167897728692</v>
+        <v>0.01738926915198099</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.75950720192367</v>
+        <v>30.03814879706252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9184469627191494</v>
+        <v>0.8899134025333385</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.88477722570153</v>
+        <v>33.42575951037092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8640784446699693</v>
+        <v>0.8978397541291903</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2071642280851828</v>
+        <v>-0.20375095751794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1394726027627754</v>
+        <v>0.1370403881995713</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.46910729243303e-05</v>
+        <v>5.457003354626024e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8094482677632662</v>
+        <v>0.9476172974665665</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-64.18847424207259</v>
+        <v>-65.69666902794437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07035476357500883</v>
+        <v>0.05733420130631629</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-61.0168507463225</v>
+        <v>-63.16925776695793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04300665099983675</v>
+        <v>0.02927735881571587</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4472.36924730826</v>
+        <v>-3743.466848898716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4832122863824836</v>
+        <v>0.523666204967189</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.5103839408239</v>
+        <v>163.6405748318502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8883967221549595</v>
+        <v>0.9709618424105129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2621.410371413283</v>
+        <v>30232.33542846257</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7381437895820234</v>
+        <v>0.0002849993571634256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30324.65468237301</v>
+        <v>-61.65407768575551</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003655414786591261</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-63.77101797914591</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5428472309746437</v>
+        <v>0.5478307162900795</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16463.63703910925</v>
+        <v>17078.96000010064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03926039357047106</v>
+        <v>0.03096516002722673</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.43962193858772</v>
+        <v>34.39463878319589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8855582370265889</v>
+        <v>0.8699495343638732</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.4119184471773</v>
+        <v>149.2986178338618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4661254908579087</v>
+        <v>0.4512847708787847</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.191723217246392</v>
+        <v>-0.1910961198924164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1907810152892486</v>
+        <v>0.1890439827157904</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.739153237392967e-05</v>
+        <v>1.152856505098948e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.47251156765891</v>
+        <v>0.7795861571958693</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-65.5383671970062</v>
+        <v>-66.76820444035403</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06762143118007638</v>
+        <v>0.06077662562683343</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-63.30531056406742</v>
+        <v>-67.36975403172913</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05125659796290721</v>
+        <v>0.03541219095253434</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5974.161426266714</v>
+        <v>-4911.190425940356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2373515613165477</v>
+        <v>0.3095953647271428</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3188.444316307537</v>
+        <v>1670.961398415358</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5412415057602137</v>
+        <v>0.7300710595125951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6081.048653059357</v>
+        <v>24323.99284789303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4078897964260666</v>
+        <v>0.006736278641036988</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25130.2232246226</v>
+        <v>-76.8650470881322</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00602653628536382</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-76.45060818380006</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4803413163426057</v>
+        <v>0.475040989036503</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7291.226649519627</v>
+        <v>7822.935074919093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3930464685219682</v>
+        <v>0.3440874741338343</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-188.5245844531976</v>
+        <v>-184.75269625175</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3964886380064181</v>
+        <v>0.3965322769193341</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.535264502148</v>
+        <v>292.5127785428198</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1451987320063278</v>
+        <v>0.1350226015423358</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01674821995063092</v>
+        <v>0.01747845399523695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9214058164196891</v>
+        <v>0.9164431041648731</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.518414167813722e-05</v>
+        <v>3.110468377724177e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3991551293998888</v>
+        <v>0.396531615419858</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-61.69963765110133</v>
+        <v>-60.94432836795401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06763225328928157</v>
+        <v>0.06510934832338444</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-34.12451680051144</v>
+        <v>-35.78817871537777</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2673897334676317</v>
+        <v>0.2315032560266997</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9812.501996217479</v>
+        <v>-9347.873474389216</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04277767239934568</v>
+        <v>0.04080001326936244</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2378.254420231853</v>
+        <v>-3170.392705529041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6328013655462497</v>
+        <v>0.4731806530978283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2989.288723007308</v>
+        <v>19989.55790217011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.71207744446688</v>
+        <v>0.04162151822999054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20137.17127452909</v>
+        <v>51.93756661870157</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04433047219391051</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>59.54343479618672</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6532998677450057</v>
+        <v>0.6859721635716614</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12428.06611748814</v>
+        <v>13699.86369076084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0973469819965012</v>
+        <v>0.06098108070220214</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.0265779661162</v>
+        <v>226.4838896709098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.361106358496576</v>
+        <v>0.3013732069425712</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.866844624418945</v>
+        <v>1.758625534764633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.983782984296166</v>
+        <v>0.9925629250997499</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3350790817210361</v>
+        <v>-0.3662296267582155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09331811890160255</v>
+        <v>0.06083632092362678</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.303499778675871e-05</v>
+        <v>3.957095601191936e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2095126944254284</v>
+        <v>0.3214322769994237</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-62.76127187916366</v>
+        <v>-63.53879796751963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07438919141378909</v>
+        <v>0.0686102777106451</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-48.66584411038315</v>
+        <v>-56.35804465371358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1360986856323886</v>
+        <v>0.07105826708206471</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-10154.12108294114</v>
+        <v>-9350.794012548113</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06281766815023224</v>
+        <v>0.07708317497603347</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4163.399445800317</v>
+        <v>3510.059219735207</v>
       </c>
       <c r="C10" t="n">
-        <v>0.409714286513822</v>
+        <v>0.4769220882022841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5909.241973067288</v>
+        <v>28242.85743762018</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4249029004887107</v>
+        <v>0.0007274307146749252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28699.74827298721</v>
+        <v>-27.26347245207401</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007291613002601536</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-15.85160846144015</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8810326223054095</v>
+        <v>0.7936273166238124</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13295.88546130113</v>
+        <v>13671.3430141075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01031263946217012</v>
+        <v>0.007031018345059948</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.6132529057316</v>
+        <v>170.8549050557219</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3000882979093946</v>
+        <v>0.2706177179755406</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.0961246226211</v>
+        <v>101.5111497070112</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4704695605961473</v>
+        <v>0.4745773700217978</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2216033638058202</v>
+        <v>-0.2221994812116076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02368682483831374</v>
+        <v>0.02126078441533217</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.776199655349021e-05</v>
+        <v>5.477266571217914e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6197558749274494</v>
+        <v>0.8371071653131648</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-43.92248262357427</v>
+        <v>-44.03848290750923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08147950560487099</v>
+        <v>0.07614459047127313</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-36.27487331279107</v>
+        <v>-38.12504714798132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09909627079212482</v>
+        <v>0.07544148044700894</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2425.129679682519</v>
+        <v>-1702.041814450706</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5270697822274981</v>
+        <v>0.6285342023990323</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3306.754348879871</v>
+        <v>2759.367162862546</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3089372967960143</v>
+        <v>0.3612248037467135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2534.86210208456</v>
+        <v>25251.13859373362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.599477375602351</v>
+        <v>6.429351331530086e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25622.4579839993</v>
+        <v>-120.8357732438844</v>
       </c>
       <c r="C12" t="n">
-        <v>7.851080578268856e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-117.9812240284636</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08182269572004681</v>
+        <v>0.06984319102303466</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19462.11697739045</v>
+        <v>20444.38482206555</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002697648953137417</v>
+        <v>0.001411235244453387</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.78041462081214</v>
+        <v>39.84416480245289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8092466870617825</v>
+        <v>0.8327957533069329</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.54892076770339</v>
+        <v>45.74393040476932</v>
       </c>
       <c r="C4" t="n">
-        <v>0.87160439328146</v>
+        <v>0.8073152838899282</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.28655997484686</v>
+        <v>-0.2820986213195745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02799860149795009</v>
+        <v>0.02921907219641387</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.151610841094419e-05</v>
+        <v>1.573784083511384e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3606920858316994</v>
+        <v>0.6495282103925955</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-66.96525563988811</v>
+        <v>-69.94040390911718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02561055839195193</v>
+        <v>0.01883928644491778</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-75.88788660496621</v>
+        <v>-81.6795243881442</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00545154204433439</v>
+        <v>0.002194792273566374</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6233.867166557842</v>
+        <v>-4931.980215058575</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1769413718195673</v>
+        <v>0.254512883530769</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1578.530147113303</v>
+        <v>270.6394629510667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7011681054995557</v>
+        <v>0.943599088956186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6044.25251054503</v>
+        <v>35042.82237969352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3725531885322787</v>
+        <v>1.895711100301807e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35740.5041167931</v>
+        <v>-122.5511509913073</v>
       </c>
       <c r="C12" t="n">
-        <v>1.913049621934061e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-117.2320291041576</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1728945702068307</v>
+        <v>0.1520228398149983</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11984.97492432927</v>
+        <v>12698.1456394334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08829719820577721</v>
+        <v>0.06871345891379693</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.45995149146745</v>
+        <v>112.1676732502679</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6377325724937772</v>
+        <v>0.5893667122338411</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.5999371774747</v>
+        <v>129.1650956879407</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5143966606686803</v>
+        <v>0.5007134240839158</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2345230884345592</v>
+        <v>-0.2307084560364685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09282680526530504</v>
+        <v>0.09606525241331165</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.271654945259922e-05</v>
+        <v>1.477021471828744e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3875967716444658</v>
+        <v>0.6959431673227205</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-61.08273981551008</v>
+        <v>-59.75621233886093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09224929437828071</v>
+        <v>0.0970979383334052</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-49.67700212207191</v>
+        <v>-52.77495734130921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1279673559969891</v>
+        <v>0.1032508926857681</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5744.712550777578</v>
+        <v>-4344.313164448035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2640228656054355</v>
+        <v>0.3701998086404362</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4171.300276712856</v>
+        <v>2552.045026375014</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3935159963496998</v>
+        <v>0.5704889178880217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6013.93953701156</v>
+        <v>27363.37934740586</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3734314911808334</v>
+        <v>0.0006996655420620369</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28105.16703844637</v>
+        <v>-43.26784079566229</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006337812207147798</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-34.00518064122943</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.738685675021597</v>
+        <v>0.668563750670199</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28953.18346198047</v>
+        <v>28978.35790952757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02614108783920981</v>
+        <v>0.02355188909457406</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-244.4807711389588</v>
+        <v>-222.4730896593699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3580587993720743</v>
+        <v>0.3871629018875091</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.1143200461586</v>
+        <v>216.3798919420226</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3311169333240311</v>
+        <v>0.3454043470520726</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1495762836973257</v>
+        <v>0.1312374773104477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5739895050396092</v>
+        <v>0.6120036390753958</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.634996727898949e-05</v>
+        <v>2.196655082252445e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7477454439122779</v>
+        <v>0.9569173323664486</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-113.9962976162588</v>
+        <v>-115.0730866820749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01750893785274388</v>
+        <v>0.01468869582143713</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-85.92111755372125</v>
+        <v>-89.0036791928818</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02153641168147432</v>
+        <v>0.01432169688396459</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6306.856109222521</v>
+        <v>-5610.383790291963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2782415768715062</v>
+        <v>0.3097494024007067</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4943.490542835638</v>
+        <v>-5325.37269239048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4313243317877832</v>
+        <v>0.3853695338002751</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3464.086314626767</v>
+        <v>15082.93572475605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6320651146546292</v>
+        <v>0.1989652108513169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14984.03958859954</v>
+        <v>-169.7500863140486</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2095127423291985</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-176.3606182424783</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2730492030677065</v>
+        <v>0.2811181391299451</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4342.645680667824</v>
+        <v>4450.435971881503</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2756059434941049</v>
+        <v>0.2543348409147084</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-111.4616120577771</v>
+        <v>-103.6108242766215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3940765340931659</v>
+        <v>0.4138592814877509</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.2038885840689</v>
+        <v>251.9948635414647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06432637070950961</v>
+        <v>0.06442091450461797</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008355556174681589</v>
+        <v>0.009622993380673572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9169618222813839</v>
+        <v>0.9025986221278526</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.681690976703437e-05</v>
+        <v>4.870822323679771e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7520692195879344</v>
+        <v>0.9099476259689085</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.67144800547494</v>
+        <v>-14.37153991700103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4045540478087489</v>
+        <v>0.4050871030444293</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.776930622354982</v>
+        <v>5.134631486248182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.738336502301043</v>
+        <v>0.7612857661844119</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6631.983355010119</v>
+        <v>-6232.126589493064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02904998984687182</v>
+        <v>0.02576513461862819</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2067.986561602642</v>
+        <v>-2390.31235757214</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4518145754972643</v>
+        <v>0.3549935111977066</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1527.168535229017</v>
+        <v>2335.167642336381</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6917262379126932</v>
+        <v>0.6680465417449948</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2533.569691270316</v>
+        <v>43.18725254907429</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6492160004659043</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>42.73846160931323</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4867567228788935</v>
+        <v>0.4741255990564049</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10164.86984125217</v>
+        <v>10959.94753026119</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1896422729205432</v>
+        <v>0.1425277115581838</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-104.6385645396437</v>
+        <v>-104.3894412609523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6409659834742812</v>
+        <v>0.6362210945767048</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>258.2101197747265</v>
+        <v>273.6686916544904</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2402471167484593</v>
+        <v>0.2017536569580872</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0398636908700401</v>
+        <v>-0.03394855536214678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.826256690488155</v>
+        <v>0.8489208862956239</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.261853071517182e-05</v>
+        <v>2.610822186986725e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4199200527638351</v>
+        <v>0.509501075481306</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-64.54457380601411</v>
+        <v>-65.98021759506554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08357242780002291</v>
+        <v>0.07156339817188587</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.2243111117663</v>
+        <v>-33.75506986772362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3775007912337998</v>
+        <v>0.3062813508924747</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8120.785039310613</v>
+        <v>-7632.546126119694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1296201230966345</v>
+        <v>0.1391606170841646</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>991.0674392353112</v>
+        <v>424.4637345487122</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8378404638931767</v>
+        <v>0.9268323897397616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3849.225621689448</v>
+        <v>16386.01135925335</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6269226753962616</v>
+        <v>0.1015814110313166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16408.43860251253</v>
+        <v>-20.62830363874559</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1069453065020132</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-7.947010663020933</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9460924309950834</v>
+        <v>0.8548672834147664</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11010.84603400171</v>
+        <v>11459.04881261914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1404510714781839</v>
+        <v>0.114933901366065</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.6508049336328</v>
+        <v>154.4644704414141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.500354291042342</v>
+        <v>0.4752678335212239</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.54646844592662</v>
+        <v>93.27848640418514</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6400015694922536</v>
+        <v>0.6237529937333037</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2374706520770921</v>
+        <v>-0.2403139685127187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1178802459915231</v>
+        <v>0.1070924031206507</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.749601205285262e-05</v>
+        <v>3.170131730795876e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4041052751251599</v>
+        <v>0.4264465758723442</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-56.34510588737969</v>
+        <v>-55.6474252173705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09303859115412008</v>
+        <v>0.09068172693517886</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-39.27850865808371</v>
+        <v>-40.87027475157795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2090575756882716</v>
+        <v>0.1804465643176283</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8021.512562904012</v>
+        <v>-7577.048744566118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1313035313138843</v>
+        <v>0.1368527993339622</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3574.702276820176</v>
+        <v>2905.045073948923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484547520356119</v>
+        <v>0.5397291757609692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3529.207538334889</v>
+        <v>28388.93082885386</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6905657400000693</v>
+        <v>0.0006543011445602144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28576.57974666497</v>
+        <v>-52.05566186097928</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007817856602228062</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-45.05829454000022</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6606342842215001</v>
+        <v>0.6006214898898172</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17895.70881369411</v>
+        <v>19288.17903819859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08906221060306166</v>
+        <v>0.06258176286234977</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.55298648231305</v>
+        <v>60.12352894853605</v>
       </c>
       <c r="C3" t="n">
-        <v>0.708380570065132</v>
+        <v>0.7370743543580727</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.3922486528025</v>
+        <v>114.7523386811497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5232153022645396</v>
+        <v>0.4875609362071032</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2198443123814087</v>
+        <v>-0.2145563410662592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09691111547364677</v>
+        <v>0.1016710583349233</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.676791126287991e-05</v>
+        <v>1.305731468910078e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4328904843373862</v>
+        <v>0.7198551530530035</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-60.16369299701124</v>
+        <v>-63.42675749906806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04859867454769501</v>
+        <v>0.03533895302779966</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-66.54821869899511</v>
+        <v>-73.03520666943216</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03031752620278817</v>
+        <v>0.01408194417988922</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6249.182447863968</v>
+        <v>-5396.336602313661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1496141138659163</v>
+        <v>0.1940606019458969</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1716.727696300938</v>
+        <v>511.9646371830613</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6955416784650765</v>
+        <v>0.900636625606979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5389.768060689612</v>
+        <v>32194.2676380854</v>
       </c>
       <c r="C11" t="n">
-        <v>0.413429185972396</v>
+        <v>0.003557242674391422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33105.0781824203</v>
+        <v>-133.2076662635354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003266167806831649</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-124.807422874116</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3849887526166078</v>
+        <v>0.34971402665117</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15092.93563560252</v>
+        <v>15567.22970474226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.028102612592766</v>
+        <v>0.02336829731864007</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-99.46625718273373</v>
+        <v>-63.94965147933738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6781287217060301</v>
+        <v>0.7871759011354376</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.0181288803732</v>
+        <v>89.65945500347843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7119907237802836</v>
+        <v>0.740504565583994</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2249080059813227</v>
+        <v>-0.2168861999728659</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1203814235099339</v>
+        <v>0.132630196609277</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.112570214711253e-05</v>
+        <v>2.143410228514815e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4721318334261757</v>
+        <v>0.8013709502076707</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-71.95574716631697</v>
+        <v>-68.53600254102059</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06481440072158022</v>
+        <v>0.07616717866913886</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-62.39223163165313</v>
+        <v>-65.50725263040206</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03253719248976211</v>
+        <v>0.02441572517804739</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-10224.78731246743</v>
+        <v>-8308.469522884852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07282870039343156</v>
+        <v>0.1168449866648</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1795.913023169817</v>
+        <v>28.64567637735308</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7431710562433784</v>
+        <v>0.9955945999875949</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7346.17582166668</v>
+        <v>30510.782945833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3187354047746592</v>
+        <v>0.0003457568876069068</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31148.02842573567</v>
+        <v>-32.34293433723785</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003085193905462367</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-25.74570987588351</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.796464804207306</v>
+        <v>0.7455753404009822</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15205.58128314744</v>
+        <v>15337.3903130856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006273878371040938</v>
+        <v>0.004354634169997366</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.8996723915364</v>
+        <v>151.1872517828068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3554907769374668</v>
+        <v>0.347251150524563</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.99028767890957</v>
+        <v>41.1894903759171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7832461749376193</v>
+        <v>0.7826749419966834</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1967110024890651</v>
+        <v>-0.1963092056080562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0794394777745393</v>
+        <v>0.07364420230204798</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.668913766084517e-06</v>
+        <v>1.237407045071736e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9045981433838772</v>
+        <v>0.9673895774630417</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-43.21320702774026</v>
+        <v>-43.67482000672413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1113739276511425</v>
+        <v>0.0980950636785617</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-39.30853620291022</v>
+        <v>-40.01446823318024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08991021911028887</v>
+        <v>0.07158126348457347</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3326.252423433612</v>
+        <v>-3200.834670988916</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3948803095889395</v>
+        <v>0.3908115016716377</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2008.522865863424</v>
+        <v>1796.594262896861</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6136309347443263</v>
+        <v>0.6195992793953804</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-791.5721144253621</v>
+        <v>19791.27443826462</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8848438617958339</v>
+        <v>0.001845811786706808</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19849.40995420874</v>
+        <v>-112.2721812216642</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002290767595772833</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-112.1554211822475</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.206330915348956</v>
+        <v>0.1962708230586754</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10802.91979422725</v>
+        <v>12412.26883280587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1737972027741341</v>
+        <v>0.1139075213584519</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-153.305806746378</v>
+        <v>-93.32083521238133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5703157930438467</v>
+        <v>0.7236392432505396</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.0299119153428</v>
+        <v>217.8742144120039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3306176572780172</v>
+        <v>0.39450944935829</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.109218163570419</v>
+        <v>-0.1192486278723234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5671621161880342</v>
+        <v>0.5326812080019848</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.442124944712917e-05</v>
+        <v>2.697083616446993e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2246608692510587</v>
+        <v>0.4821029063360676</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-64.84572821082149</v>
+        <v>-66.51012092608636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09883148049168952</v>
+        <v>0.0909340437455762</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-31.30862763435905</v>
+        <v>-41.80776047520808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4095064077778593</v>
+        <v>0.2572401924348157</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-10250.072511613</v>
+        <v>-7739.063023444414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08729292645897367</v>
+        <v>0.1528536924137223</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2146.705018203746</v>
+        <v>558.9159452891081</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6356893816969793</v>
+        <v>0.8958462960461179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7708.165039622487</v>
+        <v>16863.28211224054</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2997350471684948</v>
+        <v>0.09876447928520872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17664.7418213528</v>
+        <v>-14.37405887769685</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0852369996379246</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8.866680465490759</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9344521008883659</v>
+        <v>0.8940469513922771</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8966.486066307934</v>
+        <v>9028.047003737074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1874551711438932</v>
+        <v>0.1755859506615093</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.90709093993644</v>
+        <v>83.12033857064137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7104288748630475</v>
+        <v>0.6797160168928863</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.2746707719393</v>
+        <v>303.206067337463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1639196520965168</v>
+        <v>0.1528072427906559</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1698755255101351</v>
+        <v>-0.1778469443417216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3444654718742588</v>
+        <v>0.3036264558075633</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.37495731001892e-06</v>
+        <v>1.06088315027724e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8779649239230498</v>
+        <v>0.9997838973412774</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-43.27094521315126</v>
+        <v>-42.77349973591731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1741138406310612</v>
+        <v>0.1693690351446735</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-47.2620177721832</v>
+        <v>-47.68123516036111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1090921886504921</v>
+        <v>0.0986682665883996</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>527.6955784643733</v>
+        <v>891.5926912879531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.930665017480115</v>
+        <v>0.8764038973255853</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2025.635254344958</v>
+        <v>1795.163248552495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7063316568324551</v>
+        <v>0.728570564520802</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1898.689890390149</v>
+        <v>26851.73277490204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8217788244144666</v>
+        <v>0.0005432712803186823</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26937.52623562549</v>
+        <v>-30.44442672298214</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006870193161547603</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-28.48804498912203</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7595408978209317</v>
+        <v>0.737594010351881</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14625.30344939723</v>
+        <v>14950.86556193079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07371895908834654</v>
+        <v>0.06097260077999685</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-73.89006619060387</v>
+        <v>-66.58315528605681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7646856006976774</v>
+        <v>0.7825241913683924</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.7672936797612</v>
+        <v>191.3495744309811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.457112609097635</v>
+        <v>0.473879898281274</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1206659226460149</v>
+        <v>-0.1041508285237417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5172151104269223</v>
+        <v>0.5547295032633397</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.314963545287381e-05</v>
+        <v>2.6099228228864e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8216057067666954</v>
+        <v>0.9818190764284646</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-62.3215527683536</v>
+        <v>-64.88251933186842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1062446477194254</v>
+        <v>0.08125422552865458</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-60.11107881497293</v>
+        <v>-62.28066623872668</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05637344989534338</v>
+        <v>0.04018451280278658</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7742.896036534818</v>
+        <v>-6742.806731051358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.321009183020924</v>
+        <v>0.34059939046246</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-634.8827594018217</v>
+        <v>-1003.131585108728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8953191888317982</v>
+        <v>0.8279596409135654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2791.549727154004</v>
+        <v>28369.45931598163</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7324822125002581</v>
+        <v>0.002440702671874713</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28507.92577540188</v>
+        <v>-53.03152136527615</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00287157700337592</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-53.99050247039872</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.623891792654547</v>
+        <v>0.6233207890672623</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14687.61423332302</v>
+        <v>15057.00598777516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03779928319918364</v>
+        <v>0.03083052616306975</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.979309135239362</v>
+        <v>12.16227374178652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9923465001735132</v>
+        <v>0.9522881299766744</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.099923017818</v>
+        <v>145.8150169065636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4553041218165799</v>
+        <v>0.444376778800209</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2335223525127701</v>
+        <v>-0.235953721302223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1167519533892024</v>
+        <v>0.1085405274671118</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.599082449544699e-05</v>
+        <v>2.596689070015109e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3783924879826652</v>
+        <v>0.5317004426086924</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-72.84867833554787</v>
+        <v>-73.89682075020409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04993895406628731</v>
+        <v>0.04398727874949545</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-58.24401212479771</v>
+        <v>-60.46191218111066</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05573553138778903</v>
+        <v>0.04355459092540194</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7139.614127374276</v>
+        <v>-6392.671878874196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1514873756686282</v>
+        <v>0.1795975135010288</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4891.105410159305</v>
+        <v>4143.814068366391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3615100782165883</v>
+        <v>0.4219392885282638</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4770.257310939023</v>
+        <v>28155.84096274108</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5128735296062263</v>
+        <v>0.0007280960263270307</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28647.14795279582</v>
+        <v>-63.78615738621764</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007693142911277337</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-60.72571590712334</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5858812585312504</v>
+        <v>0.5621464618685009</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13262.92516982211</v>
+        <v>14068.86132251011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1412566848409811</v>
+        <v>0.1123711369144298</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.829312136150747</v>
+        <v>43.10837624743988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9826041970598751</v>
+        <v>0.8389995856475739</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.9610674003243</v>
+        <v>134.325348141364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4746951275082447</v>
+        <v>0.4842123437382091</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1580451894940886</v>
+        <v>-0.1809291014315986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3918928129304367</v>
+        <v>0.3148330523202116</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.618660324664154e-05</v>
+        <v>2.577799239275742e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3606879298071632</v>
+        <v>0.5212150358390923</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-64.66624700217507</v>
+        <v>-67.70976365240395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09966225147118978</v>
+        <v>0.07999998384997267</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-50.1591187241542</v>
+        <v>-57.53747139847437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21040453784521</v>
+        <v>0.1337664112303183</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7868.499283084217</v>
+        <v>-6826.419470289507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1154934170417254</v>
+        <v>0.1444523726445928</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1915.49015673601</v>
+        <v>1375.083556293095</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7215979612273603</v>
+        <v>0.7936035002318584</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5183.492503278512</v>
+        <v>22487.89010024832</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4910705867366237</v>
+        <v>0.04397805465641207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22329.21196001755</v>
+        <v>-25.23701344321913</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04805706501004663</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.11590660346035</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8712680005281718</v>
+        <v>0.8515927414213843</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8907.687888792287</v>
+        <v>9510.012175964237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2300770376713629</v>
+        <v>0.1839905173701609</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.5439943426796</v>
+        <v>245.6819306018587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2345263302719236</v>
+        <v>0.2276094749821156</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.059896548702682</v>
+        <v>-3.406148263755199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.981843251511906</v>
+        <v>0.9844062879505122</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.237858241760081</v>
+        <v>-0.2378796692562818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06286175045553932</v>
+        <v>0.05812862640074722</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.469931257546727e-05</v>
+        <v>2.070662197703787e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4763736898430918</v>
+        <v>0.5385902880763394</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-48.92470697302504</v>
+        <v>-50.38607596450572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.134866529432175</v>
+        <v>0.1151594161167389</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.715352526973</v>
+        <v>-31.78958140488046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3486548114996841</v>
+        <v>0.3016236701630358</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5523.340809285954</v>
+        <v>-5117.931215091898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2130948409700399</v>
+        <v>0.2267864045076752</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1786.564619978379</v>
+        <v>942.0764852508528</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6855226519055768</v>
+        <v>0.8050891499016667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3153.446376195332</v>
+        <v>31614.39938781711</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6844838723603415</v>
+        <v>5.024361258594033e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31999.83141706069</v>
+        <v>-35.65053877713081</v>
       </c>
       <c r="C12" t="n">
-        <v>6.790798292006014e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-33.37599290863319</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7053101266517716</v>
+        <v>0.6803127285768398</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17081.09140678419</v>
+        <v>17296.05394848668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001564732780084649</v>
+        <v>9.613428263703587e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.36071546323336</v>
+        <v>53.21663197193479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6874616232230761</v>
+        <v>0.6445465870419003</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.0576235508614</v>
+        <v>106.6855207569459</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4068377042819654</v>
+        <v>0.4092990327161518</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2405722728625261</v>
+        <v>-0.2459137901878741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02282140285574442</v>
+        <v>0.01768554300374215</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.043892495533621e-06</v>
+        <v>-1.611338194158681e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8137235257764329</v>
+        <v>0.4888655205550365</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-44.12693905777832</v>
+        <v>-44.58551035250326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03146342291346104</v>
+        <v>0.02716840707279134</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-61.86999593264051</v>
+        <v>-63.20227774855761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001193464207404408</v>
+        <v>0.000708045048842521</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-672.6774344582118</v>
+        <v>-262.8597199185824</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8399821216137306</v>
+        <v>0.9340083428711958</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1932.339807491089</v>
+        <v>1607.985199016022</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5169397642061718</v>
+        <v>0.5737774756424159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2030.906650287307</v>
+        <v>26973.42299043239</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6230719744609712</v>
+        <v>2.726929571600461e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27185.43083713983</v>
+        <v>-120.8753493532659</v>
       </c>
       <c r="C12" t="n">
-        <v>3.837168710392048e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-120.1829410500946</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0438027069722654</v>
+        <v>0.03938814058773069</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16275.59313815155</v>
+        <v>16822.40860015833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003927512080789705</v>
+        <v>0.002193118970909033</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.0884760525187</v>
+        <v>99.87527022923894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5578581594751753</v>
+        <v>0.5567133986723163</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.91800749054141</v>
+        <v>72.00233290938888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6688595353115998</v>
+        <v>0.6500285820012561</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2295486861978691</v>
+        <v>-0.2281983349960428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05059624197089965</v>
+        <v>0.04832132834473868</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.243070350306327e-05</v>
+        <v>-1.967374638460282e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7578559469831917</v>
+        <v>0.9469288932123787</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-41.21395231162558</v>
+        <v>-41.19847860060676</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1047772563587401</v>
+        <v>0.09972461193984845</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-42.44576376513577</v>
+        <v>-45.10844570514271</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05560336857211617</v>
+        <v>0.03493675672349396</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2657.888693047464</v>
+        <v>-1803.391456697459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5258141938758276</v>
+        <v>0.635684275189065</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1831.49460018491</v>
+        <v>960.9387567145209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6256909481452118</v>
+        <v>0.7727331762631685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2982.107973506541</v>
+        <v>19796.10845468207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5933926044018429</v>
+        <v>0.001975270291491138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20219.97826070936</v>
+        <v>-129.6491129280343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002096336389894996</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-125.7915494855455</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1174984481460619</v>
+        <v>0.1006053295381646</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16887.54898294044</v>
+        <v>17299.23155853529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008260818048608063</v>
+        <v>0.006392586038022834</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-133.9364760206543</v>
+        <v>-132.238472170129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5730661386224731</v>
+        <v>0.5755182177271709</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.9696841357731</v>
+        <v>141.8394349473093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5598063752281719</v>
+        <v>0.5735266512136197</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.262419057519221</v>
+        <v>-0.2563693492278027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06493929308508289</v>
+        <v>0.06854246877168427</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001071359908560363</v>
+        <v>6.768497002460667e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.253320124404775</v>
+        <v>0.396878489823795</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-66.56058756483482</v>
+        <v>-65.95580523897927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02582792331075022</v>
+        <v>0.02586406509798387</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-68.37112609455779</v>
+        <v>-71.58744732038501</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00986407283192251</v>
+        <v>0.00622626260524262</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6841.439808224075</v>
+        <v>-5618.515600612079</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1425346382182334</v>
+        <v>0.1984075706550541</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1394.379951606234</v>
+        <v>-2682.894671103503</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7697349262292426</v>
+        <v>0.5508073386192257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5452.564774283512</v>
+        <v>34430.40721877616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4019242490956524</v>
+        <v>3.918924854588171e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34865.27946021438</v>
+        <v>-81.59068090597606</v>
       </c>
       <c r="C12" t="n">
-        <v>4.18055238770333e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-83.40084832548403</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3445098568787746</v>
+        <v>0.3516529143616266</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21065.37770723772</v>
+        <v>21647.00452557544</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07141089386661499</v>
+        <v>0.06128976164177233</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-34.52789698876785</v>
+        <v>-2.442038122414885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8828379401584294</v>
+        <v>0.9914682902868214</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.283319478596</v>
+        <v>186.9153755183271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3409256318184222</v>
+        <v>0.383551311749768</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08724742005037964</v>
+        <v>-0.09549894193173462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6168548739714581</v>
+        <v>0.5800131695138309</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.58507650082134e-05</v>
+        <v>1.144008146109609e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5074234268305784</v>
+        <v>0.789882892250124</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-68.25417194932803</v>
+        <v>-69.3622714697953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06361515828957112</v>
+        <v>0.05704647743309121</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-62.92905962242692</v>
+        <v>-66.69737673746408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04797314100338126</v>
+        <v>0.03297104289908243</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9626.418181529043</v>
+        <v>-8082.52416719151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09416056659967396</v>
+        <v>0.1256742274255573</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>387.6595566319811</v>
+        <v>-715.8098020142729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9419303355460541</v>
+        <v>0.8878700173114509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5452.492670397298</v>
+        <v>21480.82272485558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4482653195560338</v>
+        <v>0.05913151344083511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21954.02994915541</v>
+        <v>-159.3980082293765</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05691671696702671</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-158.2451322619287</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3510441607283956</v>
+        <v>0.3431563972329411</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10066.33774471163</v>
+        <v>11048.88640185558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1855836274924354</v>
+        <v>0.1358329862765539</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7.857947877346419</v>
+        <v>-8.029822682241502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9699397993355567</v>
+        <v>0.9689285703944804</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.7964024278058</v>
+        <v>159.5331440538842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4455487240777731</v>
+        <v>0.4102829561446113</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1205025496594807</v>
+        <v>-0.1215417963704523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4226593552827482</v>
+        <v>0.4132901602848452</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.500265076824895e-05</v>
+        <v>1.787545051841439e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4247581984602011</v>
+        <v>0.6476184019258213</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-51.31836285219356</v>
+        <v>-52.59803303117578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1404859344461606</v>
+        <v>0.1261822771402664</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-33.22187860389904</v>
+        <v>-36.98344755463878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3311796440803267</v>
+        <v>0.2686353731191122</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7398.106199493206</v>
+        <v>-6429.446457673224</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1354294411421274</v>
+        <v>0.1678387099133166</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1569.87084412323</v>
+        <v>240.3547521039818</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7554853700646365</v>
+        <v>0.9582540996839375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6360.313744040277</v>
+        <v>17917.83002696406</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4966278220349863</v>
+        <v>0.07011466325394089</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18014.96530560133</v>
+        <v>-7.872073035176697</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07215190499020195</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.272594142127446</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.960745118403161</v>
+        <v>0.9397712831141368</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13253.30266104401</v>
+        <v>13585.4352078577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02876294432823913</v>
+        <v>0.02075932811840386</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.0969038953118</v>
+        <v>114.2842513448102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4790486036514149</v>
+        <v>0.480526509481444</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.5433000575824</v>
+        <v>107.6479966390695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5203434349549723</v>
+        <v>0.5226959992526022</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1644495569454664</v>
+        <v>-0.1628552431140319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1562699925436951</v>
+        <v>0.151751445829206</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.721173450113935e-08</v>
+        <v>-8.919136571283525e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9995042475101568</v>
+        <v>0.7914078575556887</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-42.55948891996465</v>
+        <v>-43.57830772607374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1459986828645903</v>
+        <v>0.1273356113980874</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-40.64298524103515</v>
+        <v>-42.41899020327845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08989029273612796</v>
+        <v>0.06471552525442208</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1068.370776230825</v>
+        <v>-646.9291490543637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.839311119140277</v>
+        <v>0.8972904179707405</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1342.540370854134</v>
+        <v>822.8797313685936</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7217512040008962</v>
+        <v>0.8062351938466628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1870.331444368097</v>
+        <v>19208.23563030182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7421712293423623</v>
+        <v>0.003215095590237579</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19519.9403383506</v>
+        <v>-73.20178449525532</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003748947254972425</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-73.88891766424257</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4219872978536465</v>
+        <v>0.4171492608833094</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Wien.xlsx
+++ b/outputs/ML_Results/dist_LR/Wien.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ20219862" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ20362101" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ20499215" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ20637701" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ20773541" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ20913963" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ21057557" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ21196687" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ21334111" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ21475249" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ21615349" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ21753365" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ21893994" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ22041818" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ22204037" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ22386686" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ22569297" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ22752671" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ22941841" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ23131207" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ23317822" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ23507658" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ23699254" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ23878076" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ24064142" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ24258300" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ24443739" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ24628563" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ24814335" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ25004916" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ25191828" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ25377259" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ25563926" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ25751026" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ25932931" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ26120194" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ26309431" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ26490710" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ26675033" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ26858515" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ27047694" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ27237120" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ27421549" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ27624421" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ27856961" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ28114412" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ28420078" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ28635115" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ28824110" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ29034447" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ10382146" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ10537362" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ10676242" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ10819111" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ10957918" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ11115323" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ11267068" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ11523466" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ11665890" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ11813221" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ11959689" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ12098282" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ12242213" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ12389106" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ12533895" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ12688231" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ12857530" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ13040785" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ13237572" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ13432640" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ13636270" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ13822583" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ14027010" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ14216148" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ14395197" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ14579819" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ14762814" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ14956413" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ15167720" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ15358443" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ15529876" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ15712837" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ15894050" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ16111955" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ16310369" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ16496541" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ16678532" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ16858789" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ17064927" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ17256895" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ17450180" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ17647755" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ17828944" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ18017090" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ18197680" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ18373547" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ18594367" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ18778381" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ18975730" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ19162816" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Wien.xlsx
+++ b/outputs/ML_Results/dist_LR/Wien.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ47543294" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ47730891" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ47930587" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ48114287" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ48293164" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ48467964" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ48647315" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ48847875" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ49038550" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ49216096" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ49394624" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ49579250" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ49747562" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ49931185" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ50151457" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ50366093" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ50527806" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ50725891" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ50897778" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ51080564" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ51266397" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ51442590" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ51614383" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ51797361" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ51974360" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ52145977" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ52318957" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ52497525" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ52671350" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ52846344" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ53016035" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ53198267" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ53364264" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ53548242" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ53714348" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ53897634" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ54077092" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ54259942" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ54436064" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ54629790" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ54815631" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ55001954" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ55196115" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ55382278" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ55563596" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ55731128" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ55915003" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ56080854" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ56263506" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ56441977" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ57551917" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ57721554" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ57904853" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ58121322" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ58347551" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ58572540" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ58804759" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ59038589" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ59271948" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ59505301" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ59740591" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ59971333" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ00249074" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ00471355" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ00704876" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ00938036" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ01176235" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ01409679" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ01638110" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ01872052" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ02105008" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ02338055" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ02554668" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ02788864" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ03023963" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ03265733" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ03488091" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ03721845" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ03953203" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ04171270" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ04405622" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ04638031" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ04881727" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ05123309" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ05360445" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ05610711" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ05856854" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ06088796" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ06328033" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ06555380" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ06800615" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ07021920" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ07271935" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ07488724" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ07727954" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ07973587" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ08222221" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ08454697" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ08671325" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ08921264" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Wien.xlsx
+++ b/outputs/ML_Results/dist_LR/Wien.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ57551917" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ57721554" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ57904853" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ58121322" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ58347551" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ58572540" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ58804759" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ59038589" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ59271948" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ59505301" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ59740591" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ59971333" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ00249074" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ00471355" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ00704876" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ00938036" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ01176235" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ01409679" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ01638110" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ01872052" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ02105008" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ02338055" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ02554668" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ02788864" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ03023963" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ03265733" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ03488091" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ03721845" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ03953203" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ04171270" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ04405622" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ04638031" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ04881727" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ05123309" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ05360445" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ05610711" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ05856854" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ06088796" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ06328033" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ06555380" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ06800615" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ07021920" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ07271935" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ07488724" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ07727954" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ07973587" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ08222221" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ08454697" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ08671325" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ08921264" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ00779629" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ00982942" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01181446" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ01390430" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ01583214" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ01781234" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ01979258" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ02170790" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ02368428" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ02567621" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ02799271" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ03001292" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ03333641" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ03548234" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ03754901" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ03950044" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ04148065" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ04341092" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ04538626" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ04738776" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ04963711" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ05158507" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ05356020" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ05549040" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ05749367" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ05944516" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ06136536" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ06331567" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ06530590" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ06723676" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ06924700" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ07118468" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ07314485" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ07510180" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ07703253" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ07899276" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ08095294" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ08292318" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ08482337" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ08680362" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ08873381" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ09072924" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ09275440" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ09472462" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ09667484" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ09866743" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ10068766" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ10259785" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ10458164" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ10655721" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Wien.xlsx
+++ b/outputs/ML_Results/dist_LR/Wien.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ00779629" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ00982942" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ01181446" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ01390430" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ01583214" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ01781234" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ01979258" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ02170790" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ02368428" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ02567621" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ02799271" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ03001292" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ03333641" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ03548234" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ03754901" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ03950044" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ04148065" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ04341092" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ04538626" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ04738776" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ04963711" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ05158507" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ05356020" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ05549040" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ05749367" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ05944516" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ06136536" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ06331567" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ06530590" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ06723676" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ06924700" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ07118468" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ07314485" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ07510180" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ07703253" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ07899276" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ08095294" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ08292318" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ08482337" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ08680362" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ08873381" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ09072924" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ09275440" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ09472462" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ09667484" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ09866743" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ10068766" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ10259785" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ10458164" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ10655721" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ32171357" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ32343991" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ32513789" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ32688982" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ32859691" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ33035948" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ33206790" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ33377712" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ33548273" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ33720782" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ33896344" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ34075442" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ34435921" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ34628425" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ34858657" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ35102517" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ35329691" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ35560999" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ35785295" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ36011609" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ36240976" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ36461293" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ36684221" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ36908906" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ37134773" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ37357717" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ37584252" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ37800788" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ38033024" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ38253943" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ38475270" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ38711829" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ38938322" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ39165950" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ39398906" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ39672337" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ39979647" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ40250989" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ40479548" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ40736964" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ40958540" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ41216648" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ41449150" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ41709565" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ41983476" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ42231679" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ42468664" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ42682321" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ42932408" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ43155535" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,20 +507,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1114.637009191383</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6265615914981381</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>214.4309557196555</v>
+        <v>1114.637009191797</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6265615914979787</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>214.43095571962</v>
       </c>
       <c r="C3" t="n">
         <v>0.1806957227505643</v>
@@ -533,23 +533,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2394906299063045</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03184287402867021</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>33678.16756122762</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.000619207055561618</v>
+        <v>-23.94906299058076</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03184287402900163</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>336.7816756122765</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0006192070555616198</v>
       </c>
     </row>
   </sheetData>
@@ -595,49 +595,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>706.3057303633936</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.738690825473211</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>170.2288070341044</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2575896849957174</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2638598924454102</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01196835637993451</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>37684.80112668657</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0002615121463046941</v>
+        <v>706.3057303626742</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7386908254735123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>170.2288070341351</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2575896849957176</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-26.38598924450646</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01196835638002653</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>376.8480112668658</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0002615121463046956</v>
       </c>
     </row>
   </sheetData>
@@ -683,49 +683,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2940.684789431042</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0979167775011577</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>289.5832331506087</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01203267937486803</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1268594484285825</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1155422290647502</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>15959.61457952515</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04869324400463894</v>
+        <v>2940.68478943105</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09791677750115672</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>289.5832331506571</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0120326793748679</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-12.68594484281653</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.115542229065902</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>159.5961457952515</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04869324400463918</v>
       </c>
     </row>
   </sheetData>
@@ -771,49 +771,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>470.6168707057159</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8145339201246332</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>338.0007683215384</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01649486572368099</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1838817576736324</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07255308677903714</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>30144.31552033086</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001585218291812298</v>
+        <v>470.6168707053198</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.814533920124795</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>338.0007683216083</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01649486572368103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-18.38817576730585</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07255308677991852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>301.4431552033082</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001585218291812318</v>
       </c>
     </row>
   </sheetData>
@@ -859,49 +859,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.472065033139</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4854979419234782</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>226.33843416787</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06299816053664746</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2308492718993231</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01107655886601649</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>31378.54965055812</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0001735185250179176</v>
+        <v>1251.472065033374</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4854979419233776</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>226.3384341678799</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06299816053664767</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-23.08492718986582</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01107655886621658</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>313.785496505581</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0001735185250179181</v>
       </c>
     </row>
   </sheetData>
@@ -947,20 +947,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1653.684975670245</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4710584344030027</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>271.0822707139969</v>
+        <v>1653.684975670296</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4710584344029862</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>271.0822707140155</v>
       </c>
       <c r="C3" t="n">
         <v>0.08013201306304739</v>
@@ -973,23 +973,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.194963876545427</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06573433324986143</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>27104.115826626</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.006664901235439289</v>
+        <v>-19.49638765450685</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06573433325031254</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>271.0411582662598</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.006664901235439307</v>
       </c>
     </row>
   </sheetData>
@@ -1035,49 +1035,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.14357687100437</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9649063384259958</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>238.3269675081146</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07045239253366839</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2311921180156241</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01933186606340078</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>36552.49801093036</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0006387779429444036</v>
+        <v>91.14357687116899</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9649063384259318</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>238.3269675080939</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07045239253366878</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-23.11921180149936</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01933186606370042</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>365.5249801093036</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0006387779429443917</v>
       </c>
     </row>
   </sheetData>
@@ -1123,49 +1123,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1841.576712062396</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3390151392497257</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>215.5457466476518</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06973378961357256</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2165851409554875</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02101936319918962</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>27347.05462840561</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002057650346845244</v>
+        <v>1841.576712062554</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3390151392496719</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>215.5457466476401</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06973378961357396</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-21.65851409547614</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02101936319957387</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>273.4705462840566</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002057650346845158</v>
       </c>
     </row>
   </sheetData>
@@ -1211,49 +1211,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-415.701865851107</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8486596291537321</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>390.025028986235</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01128457799829995</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.173762592444002</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07657317268113881</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>32695.51273638685</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.00051467571992484</v>
+        <v>-415.7018658523375</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8486596291533115</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>390.0250289862488</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01128457799829981</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-17.37625924436193</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07657317268179077</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>326.9551273638689</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0005146757199248246</v>
       </c>
     </row>
   </sheetData>
@@ -1299,49 +1299,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3007.148507465247</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07460746472206496</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>291.0381234910418</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01077586434854608</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.128001935424882</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1267753676363293</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>15743.11655039788</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04475786865194167</v>
+        <v>3007.148507466165</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.07460746472194817</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>291.0381234909852</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01077586434854621</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-12.80019354243611</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1267753676377495</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>157.4311655039792</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04475786865194137</v>
       </c>
     </row>
   </sheetData>
@@ -1387,49 +1387,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1079.774413473619</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6014209448601279</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>178.5503636553761</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2113487603162396</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2554542327330705</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01463309031082464</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>35745.67218768466</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0006026251381254353</v>
+        <v>1079.774413474601</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6014209448597193</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>178.5503636553373</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2113487603162395</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-25.54542327325937</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01463309031098284</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>357.4567218768469</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0006026251381254302</v>
       </c>
     </row>
   </sheetData>
@@ -1475,49 +1475,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1294.160483999701</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5469709777010511</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>257.4580789583221</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0712015078671398</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2059382930932308</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04775099125960036</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>29488.31001305217</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002228397054153162</v>
+        <v>1294.160484000078</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5469709777009111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>257.4580789583327</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07120150786713969</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-20.59382930922454</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04775099126060863</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>294.8831001305218</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002228397054153133</v>
       </c>
     </row>
   </sheetData>
@@ -1563,49 +1563,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>543.8609978255354</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7946096674228647</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>317.9076138082543</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02129825105895121</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1828235459682162</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06022400489561398</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>29973.02081964926</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.003073491115558836</v>
+        <v>543.8609978256773</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.794609667422809</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>317.9076138082356</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02129825105895143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-18.2823545967709</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06022400489624709</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>299.7302081964928</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003073491115558686</v>
       </c>
     </row>
   </sheetData>
@@ -1651,46 +1651,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186.0782430413356</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9300675780398417</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>330.044952747265</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02223198885413679</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1868593663935066</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07475139720162335</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>32310.22392283202</v>
+        <v>186.0782430420995</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9300675780395484</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>330.044952747255</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02223198885413704</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-18.6859366392571</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07475139720298514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>323.1022392283201</v>
       </c>
       <c r="C5" t="n">
         <v>0.0006378915131174897</v>
@@ -1739,49 +1739,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1816.020079493298</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3354480685902848</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>282.2934737085191</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02803359157641767</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1857139058021124</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04584405842476546</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>24848.890661645</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.00646833440784831</v>
+        <v>1816.02007949294</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3354480685904007</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>282.29347370855</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0280335915764176</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-18.57139058017318</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04584405842520165</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>248.4889066164504</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.006468334407848257</v>
       </c>
     </row>
   </sheetData>
@@ -1827,49 +1827,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.0626389906358</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8758957003970027</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>268.145782826062</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0529877945616657</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2138406785783835</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02786706361001686</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>34187.70253516299</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001059609752938905</v>
+        <v>333.062638989863</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8758957003973005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>268.1457828261077</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05298779456166608</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-21.38406785779079</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02786706361030591</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>341.8770253516301</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0010596097529389</v>
       </c>
     </row>
   </sheetData>
@@ -1915,49 +1915,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3225.50233157988</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07059935518603906</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>189.9365670537642</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1107861797078586</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1873984825328199</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03090798360843517</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20525.03852327567</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0112638306580859</v>
+        <v>3225.502331579582</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.07059935518608083</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>189.9365670537655</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1107861797078583</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-18.73984825320731</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03090798360901269</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>205.2503852327572</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01126383065808575</v>
       </c>
     </row>
   </sheetData>
@@ -2003,49 +2003,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>912.0702159497619</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6525548030697691</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>300.6526616354065</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02519235683433274</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1826259825480472</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05879037031049116</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>28456.92919476718</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.003036028360500073</v>
+        <v>912.0702159488419</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6525548030701327</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>300.652661635451</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02519235683433249</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-18.262598254769</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.058790370310955</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>284.5692919476716</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003036028360500099</v>
       </c>
     </row>
   </sheetData>
@@ -2091,46 +2091,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1255.302715143461</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6159509183993501</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>254.8666219753185</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1369299863524191</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2111157965444376</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06132074923294741</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>30261.86571223483</v>
+        <v>1255.302715144262</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6159509183990757</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>254.8666219752992</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1369299863524188</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-21.1115796544054</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06132074923334834</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>302.618657122348</v>
       </c>
       <c r="C5" t="n">
         <v>0.004051792199839871</v>
@@ -2179,49 +2179,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2010.308984324858</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2381746414047026</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>324.0357806666531</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.003299232036203079</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1203256692051301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1068690339121682</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>19130.15829020428</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01307843045651037</v>
+        <v>2010.308984324415</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2381746414048272</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>324.0357806666511</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.003299232036203107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-12.03256692048306</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1068690339129839</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>191.301582902043</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01307843045651034</v>
       </c>
     </row>
   </sheetData>
@@ -2267,49 +2267,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1613.734649723796</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3802618584662605</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>125.7862428800696</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.273203750611903</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2619385692637791</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.005051657727050392</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>33160.52594408999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0003259136797130172</v>
+        <v>1613.734649724268</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3802618584660664</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>125.7862428800647</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2732037506119028</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-26.19385692631528</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.005051657727140373</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>331.6052594408995</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0003259136797130083</v>
       </c>
     </row>
   </sheetData>
@@ -2355,49 +2355,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450.3729376658771</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8163503483464141</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>356.3960616749719</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01094170812279979</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1856347287433883</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0525392662409924</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>30366.6974492861</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001724128785207947</v>
+        <v>450.3729376664826</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8163503483461603</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>356.3960616749506</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01094170812279974</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-18.56347287430425</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05253926624139659</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>303.6669744928607</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001724128785207965</v>
       </c>
     </row>
   </sheetData>
@@ -2443,49 +2443,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-485.6307493021086</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8175035929952521</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>332.3178511523396</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01327328191131146</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1999865587870912</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03997021994961313</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>35433.21266966225</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0004212847430160073</v>
+        <v>-485.6307493013755</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8175035929955081</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>332.3178511523162</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0132732819113114</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-19.99865587863987</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03997021995023974</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>354.3321266966229</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0004212847430160037</v>
       </c>
     </row>
   </sheetData>
@@ -2531,49 +2531,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>931.1294197398329</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6427300869172847</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>286.0571189238299</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.03558023876944164</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2061335716897242</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05196808633983376</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>30339.73413460615</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001359132125840702</v>
+        <v>931.1294197397838</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6427300869173045</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>286.0571189238059</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0355802387694418</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-20.61335716887453</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0519680863408685</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>303.397341346062</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001359132125840684</v>
       </c>
     </row>
   </sheetData>
@@ -2619,49 +2619,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-132.2510072187151</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9496945335257806</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>337.6136744464819</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0161190705422606</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1854617724729121</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05513555164017317</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>33347.32692392544</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001061121841718511</v>
+        <v>-132.2510072181205</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9496945335260033</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>337.6136744464719</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01611907054226039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-18.5461772472647</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05513555164049638</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>333.4732692392543</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001061121841718513</v>
       </c>
     </row>
   </sheetData>
@@ -2707,49 +2707,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4576.65765245848</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.34602877910521e-05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>122.9508117212736</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.03708975681195469</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1635529343324628</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.000186958885636826</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>14032.23161963392</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001223831351650915</v>
+        <v>4576.657652457987</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.346028779110361e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>122.9508117212822</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.03708975681195361</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-16.35529343321215</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0001869588856413005</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>140.3223161963386</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001223831351650953</v>
       </c>
     </row>
   </sheetData>
@@ -2795,49 +2795,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1166.317614283839</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5775350142778959</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>320.9238619877789</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02753858105596066</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1908153234625056</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07528854915780707</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>27128.60526562917</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.003870025715341702</v>
+        <v>1166.317614283984</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5775350142778417</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>320.9238619877979</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02753858105596042</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-19.08153234617068</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07528854915898534</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>271.2860526562918</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003870025715341671</v>
       </c>
     </row>
   </sheetData>
@@ -2883,49 +2883,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1360.220941005141</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5321695967661773</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>242.5911041010011</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09554430960102173</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2180692839491578</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05259692568525902</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>30682.5830806261</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002374143238614805</v>
+        <v>1360.220941004326</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5321695967664778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>242.5911041010078</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.09554430960102107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-21.8069283948369</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05259692568603744</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>306.8258308062608</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002374143238614827</v>
       </c>
     </row>
   </sheetData>
@@ -2971,49 +2971,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.24240442654309</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9891183202217034</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>323.7753480496506</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01578168578644709</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2103972739182099</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02787066720646192</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>33905.8782004008</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0006969456352053884</v>
+        <v>27.24240442625478</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.989118320221819</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>323.7753480496747</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01578168578644695</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-21.03972739177192</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02787066720680893</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>339.0587820040075</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0006969456352053976</v>
       </c>
     </row>
   </sheetData>
@@ -3059,49 +3059,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-158.2634090218635</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9353019880063379</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>326.1270734309984</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01684370914667999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2047706676564661</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03022197964184423</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>34558.99369185074</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0003171032109257513</v>
+        <v>-158.2634090217125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9353019880063982</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>326.1270734310248</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01684370914667986</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-20.47706676561943</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03022197964207418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>345.5899369185072</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0003171032109257551</v>
       </c>
     </row>
   </sheetData>
@@ -3147,49 +3147,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-199.1710233968904</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9219110053836234</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>325.8263335392355</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01854991468796257</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2119934462866132</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0279938797218244</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>35537.30882959538</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0006166071042674953</v>
+        <v>-199.1710233967719</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9219110053836687</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>325.8263335392572</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01854991468796264</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-21.19934462863682</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02799387972199086</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>355.3730882959544</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0006166071042674906</v>
       </c>
     </row>
   </sheetData>
@@ -3235,49 +3235,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3111.161225575278</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08192601054722704</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>299.9322436086716</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.006439098049669801</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1171327190145791</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1317673612340321</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>14202.91527838097</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09880240207563872</v>
+        <v>3111.161225574376</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.08192601054733641</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>299.9322436087184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.006439098049669794</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-11.71327190142479</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1317673612351415</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>142.02915278381</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0988024020756382</v>
       </c>
     </row>
   </sheetData>
@@ -3323,49 +3323,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.869619941679</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3042914539699256</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>197.5028318516439</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09730639128162315</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2046443917030379</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02874285713715911</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>27560.76686056209</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001515591654344459</v>
+        <v>1859.869619941461</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3042914539700005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>197.502831851667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0973063912816224</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-20.46443917016778</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02874285713814252</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>275.6076686056207</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001515591654344463</v>
       </c>
     </row>
   </sheetData>
@@ -3411,49 +3411,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334.2131817188229</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8782427864471647</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>208.3935165524632</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1463607740184756</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2570141975812787</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02252532436060341</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>37541.66786238621</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.00126928444307537</v>
+        <v>334.2131817195013</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8782427864469082</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>208.3935165524538</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1463607740184741</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-25.70141975808312</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02252532436082227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>375.416678623862</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001269284443075379</v>
       </c>
     </row>
   </sheetData>
@@ -3499,46 +3499,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2411.757644092004</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.316444961306394</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>203.5048182470975</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2104975287227028</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2426097250215849</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04199189838229429</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>27537.34499134358</v>
+        <v>2411.757644091635</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3164449613065106</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>203.504818247113</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2104975287227032</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-24.26097250204912</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04199189838319237</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>275.373449913436</v>
       </c>
       <c r="C5" t="n">
         <v>0.00280358624626142</v>
@@ -3587,49 +3587,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2652.415782725553</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1225972328619149</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>211.3752890442617</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05205279328386791</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1984824477019043</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02191873129974233</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>22241.63924367804</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01033641943895778</v>
+        <v>2652.415782724965</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1225972328620234</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>211.3752890442757</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05205279328386742</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-19.84824477012692</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02191873130013907</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>222.4163924367809</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01033641943895764</v>
       </c>
     </row>
   </sheetData>
@@ -3675,49 +3675,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1260.896885576024</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5971675580271716</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>278.6315030819051</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08538904211311393</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2017652663826456</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06729363777256445</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>29196.27896224222</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.004339988007018326</v>
+        <v>1260.896885575695</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5971675580272855</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>278.631503081891</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08538904211311273</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-20.17652663821818</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06729363777315844</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>291.9627896224222</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.004339988007018348</v>
       </c>
     </row>
   </sheetData>
@@ -3763,49 +3763,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.6144281031541</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8726614084443928</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>270.9861763439858</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04823114120904857</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2089799131859625</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03336203396520465</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>33849.10090565918</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.000770120757178728</v>
+        <v>329.6144281026943</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8726614084445767</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>270.9861763439476</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04823114120904923</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-20.89799131854423</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03336203396560122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>338.4910090565916</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0007701207571787382</v>
       </c>
     </row>
   </sheetData>
@@ -3851,49 +3851,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799.7040722364663</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6386099197664719</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>350.1051485602072</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.003038851527481089</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.164531174721051</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04373588346550411</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>27063.13782147889</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.000927662276124149</v>
+        <v>799.7040722361726</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.638609919766606</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>350.1051485601666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.003038851527481152</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-16.45311747206601</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04373588346593614</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>270.6313782147893</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0009276622761241437</v>
       </c>
     </row>
   </sheetData>
@@ -3939,46 +3939,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1396.305179396517</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5181743968848724</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>252.8487215192229</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08145643522691057</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2017710564169053</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05178404428293941</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>29148.14344736556</v>
+        <v>1396.305179396882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5181743968847393</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>252.8487215191788</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08145643522691186</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-20.17710564161555</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0517840442836975</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>291.4814344736559</v>
       </c>
       <c r="C5" t="n">
         <v>0.002720833518190671</v>
@@ -4027,46 +4027,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.2105875891593</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.826643700006962</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>262.7235211863302</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05884274723378592</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2249086405966789</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02082278989343505</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>34801.81249645726</v>
+        <v>423.2105875895168</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8266437000068092</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>262.7235211863075</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05884274723378627</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-22.49086405963632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02082278989359251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>348.0181249645732</v>
       </c>
       <c r="C5" t="n">
         <v>0.0004548334889881608</v>
@@ -4115,49 +4115,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>569.9105392063581</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7897157223531091</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>296.7301161823464</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.03430351117051627</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.193328050527325</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06161756456346083</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>30830.52386829448</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002839023209222432</v>
+        <v>569.9105392064919</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7897157223530576</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>296.7301161823749</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.03430351117051605</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-19.33280505264727</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06161756456451942</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>308.3052386829453</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002839023209222403</v>
       </c>
     </row>
   </sheetData>
@@ -4203,49 +4203,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-169.7186587750057</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.934264728412265</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>312.0045422523937</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.03160244333954405</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2004002184701009</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04518158646725631</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>34968.72714533149</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0005508554609560748</v>
+        <v>-169.7186587741726</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9342647284125798</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>312.0045422523647</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.03160244333954389</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-20.04002184696697</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0451815864676795</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>349.6872714533151</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0005508554609560734</v>
       </c>
     </row>
   </sheetData>
@@ -4291,46 +4291,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3109.517453448352</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09556907519342642</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>270.4962009250481</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02272852169777357</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1490208060646706</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07002589751974882</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>17001.38763954297</v>
+        <v>3109.517453448033</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09556907519347414</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>270.4962009250706</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02272852169777361</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-14.90208060643755</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07002589752029398</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>170.0138763954296</v>
       </c>
       <c r="C5" t="n">
         <v>0.03241021584065411</v>
@@ -4379,49 +4379,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4349.659164208814</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.051113225005414e-05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>299.671303780996</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.35063581383103e-05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.08543208623560888</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05833659639935716</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6350.959436697976</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1650533589059687</v>
+        <v>4349.659164207968</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.051113225036644e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>299.67130378101</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.350635813830975e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-8.543208623542</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05833659639989532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.50959436697963</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1650533589059698</v>
       </c>
     </row>
   </sheetData>
@@ -4467,49 +4467,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2661.33992178116</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1792310132123231</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>212.5268901740696</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08249230345620467</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2072208937698359</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03332038501747866</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>23233.42369342139</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.00670360015791332</v>
+        <v>2661.339921781977</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1792310132121313</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>212.5268901740581</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08249230345620431</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-20.72208937689717</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03332038501811839</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>232.3342369342138</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.006703600157913298</v>
       </c>
     </row>
   </sheetData>
@@ -4555,49 +4555,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>883.7343163979303</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6955498452478626</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>220.7269049227752</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1270582446796174</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2400688614346101</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02503420517486402</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>34594.49830203738</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001306367145603246</v>
+        <v>883.7343163984851</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6955498452476548</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>220.726904922773</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1270582446796185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-24.00688614341207</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02503420517513105</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>345.9449830203743</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001306367145603233</v>
       </c>
     </row>
   </sheetData>
@@ -4643,49 +4643,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4886.089403532475</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0001177513269605956</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>228.0853814441757</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.00183371940406015</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1053926010196616</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03637327856920458</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6852.54707346698</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1886757090565822</v>
+        <v>4886.089403531958</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0001177513269608664</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>228.0853814441787</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001833719404060166</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-10.53926010191812</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03637327856999849</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>68.52547073466968</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1886757090565825</v>
       </c>
     </row>
   </sheetData>
@@ -4731,49 +4731,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1352.664695262822</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5154750125910148</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>332.7959620514483</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02794286230764761</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1880591767895867</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1255549546516779</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>25610.21758041715</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.005630069974779565</v>
+        <v>1352.664695263065</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5154750125909264</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>332.7959620514542</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02794286230764776</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-18.80591767885059</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1255549546537851</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>256.1021758041713</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.005630069974779589</v>
       </c>
     </row>
   </sheetData>
@@ -4819,49 +4819,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-863.1390995647635</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6596927399699514</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>401.819192867323</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.002611128951179249</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.179362506479684</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04529033755263826</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>34696.51723662884</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.000225043695404629</v>
+        <v>-863.1390995655183</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6596927399696967</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>401.8191928673439</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.002611128951179204</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-17.9362506479359</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04529033755299029</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>346.9651723662881</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0002250436954046301</v>
       </c>
     </row>
   </sheetData>
